--- a/datos/baseDatos.xlsx
+++ b/datos/baseDatos.xlsx
@@ -413,63 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>cristian gallego</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>3117077453</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>k</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>jnm</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/datos/baseDatos.xlsx
+++ b/datos/baseDatos.xlsx
@@ -413,14 +413,495 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>cristian gallego grisales</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>3117077453</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>diego lopez</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>rnr379</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>01/05/23</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cristian gallego grisales</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3117077453</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>hector</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>psp551</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>61/42/12</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cristian gallego grisales</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3117077453</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>knkn</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>fff996</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>844884</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cristian gallego grisales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3117077453</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>fff</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>sss548</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cristian gallego grisales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3117077453</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>igigfj</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>sds789</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1488</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cristian gallego grisales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3117077453</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hector</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cristian gallego grisales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3117077453</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>hector</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cristian gallego grisales</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3117077453</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>peranito</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pap548</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>06/06/2023</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>13:57:16</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cristian gallego grisales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3117077453</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>iifhif</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ifif895</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>06/06/2023</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>13:58:56</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cristian gallego grisales</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3117077453</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>kkfokokf</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>hud844</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>06/06/2023</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>13:59:52</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/datos/baseDatos.xlsx
+++ b/datos/baseDatos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>cristian gallego grisales</t>
+          <t>cristiangallego</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>diego lopez</t>
+          <t>camila vargas</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -449,22 +449,22 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>rnr379</t>
+          <t>juy458</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>01/05/23</t>
+          <t>15/06/2023</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>18:21:47</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cristian gallego grisales</t>
+          <t>cristiangallego</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -487,103 +487,87 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>hector</t>
+          <t>jorge bermudez</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>psp551</t>
-        </is>
-      </c>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>61/42/12</t>
+          <t>15/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10:59</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>18:22:11</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cristian gallego grisales</t>
+          <t>yurany lopez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3117077453</t>
+          <t>3218255251</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>knkn</t>
+          <t>aldemar giraldo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>fff996</t>
-        </is>
-      </c>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>15/06/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>844884</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>18:37:04</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cristian gallego grisales</t>
+          <t>yurany lopez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3117077453</t>
+          <t>3218255251</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>fff</t>
+          <t>juan angel</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -593,313 +577,25 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>sss548</t>
+          <t>loo524</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>15/06/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>19:14:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>cristian gallego grisales</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3117077453</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>igigfj</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>sds789</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1488</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>cristian gallego grisales</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3117077453</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Hector</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>cristian gallego grisales</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3117077453</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>hector</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>cristian gallego grisales</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3117077453</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>peranito</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>pap548</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>06/06/2023</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>13:57:16</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>cristian gallego grisales</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3117077453</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>iifhif</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ifif895</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>06/06/2023</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>13:58:56</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>cristian gallego grisales</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3117077453</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>kkfokokf</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>hud844</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>06/06/2023</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>13:59:52</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
